--- a/datasource/Comic Writer Services.xlsx
+++ b/datasource/Comic Writer Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\VisualStudio\ComicWriterServices\comicwriterservices\datasource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3CD2C6-0F8A-4F85-98AB-161BDA1A4F8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7329B5-C3E5-4214-BFC9-7E6EDC94A6FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Writing for Comics (General)" sheetId="1" r:id="rId1"/>
@@ -38,20 +38,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="428">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
-    <t>Writing for Comics (General)</t>
-  </si>
-  <si>
     <t>Comic Writer Master Post</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
     <t>http://www.jimzub.com/?p=1278</t>
   </si>
   <si>
-    <t>Jim Zub</t>
-  </si>
-  <si>
     <t>How I Start Writing (and eventually finish a story)</t>
   </si>
   <si>
@@ -313,9 +304,6 @@
     <t>http://comicssurvivalkit.tumblr.com/</t>
   </si>
   <si>
-    <t>Writing Columns</t>
-  </si>
-  <si>
     <t>Where The Hell Am I?</t>
   </si>
   <si>
@@ -451,9 +439,6 @@
     <t>http://www.comicbookresources.com/?page=article&amp;id=14924</t>
   </si>
   <si>
-    <t>The Plot</t>
-  </si>
-  <si>
     <t>Craft ‘Notecard’ Story Structure Plotting</t>
   </si>
   <si>
@@ -487,9 +472,6 @@
     <t>Plot To Script: This Is How I Do It</t>
   </si>
   <si>
-    <t>Scripting</t>
-  </si>
-  <si>
     <t>http://www.cullenbunn.com/process/plot-to-script-this-is-how-i-do-it/</t>
   </si>
   <si>
@@ -577,9 +559,6 @@
     <t>http://gillen.cream.org/wordpress_html/4419/decompressed-006-mark-waid-and-matt-fraction-on-the-marvel-method/</t>
   </si>
   <si>
-    <t>Sample Scripts</t>
-  </si>
-  <si>
     <t>Comic Book Script Archive</t>
   </si>
   <si>
@@ -715,9 +694,6 @@
     <t>Greg Pak</t>
   </si>
   <si>
-    <t>Pitching And Submissions (including sample pitches)</t>
-  </si>
-  <si>
     <t>Pitch for Hawaiian Dick</t>
   </si>
   <si>
@@ -895,9 +871,6 @@
     <t>http://www.jimzub.com/?p=1660</t>
   </si>
   <si>
-    <t>Editors</t>
-  </si>
-  <si>
     <t>The Job Of The Comic Book Editor</t>
   </si>
   <si>
@@ -919,9 +892,6 @@
     <t>http://www.djcoffman.com/how-to-host-your-own-webcomic/</t>
   </si>
   <si>
-    <t>Digital Comics</t>
-  </si>
-  <si>
     <t>D.J Coffman</t>
   </si>
   <si>
@@ -946,9 +916,6 @@
     <t>Jeremy Rock</t>
   </si>
   <si>
-    <t>Podcasts</t>
-  </si>
-  <si>
     <t>http://imageaddiction.net/?tag=the-process</t>
   </si>
   <si>
@@ -997,9 +964,6 @@
     <t>How To Kickstarter</t>
   </si>
   <si>
-    <t>Crowd-Funding Your Work (Kickst</t>
-  </si>
-  <si>
     <t>http://www.washingtonpost.com/blogs/comic-riffs/post/how-to-kickstarter-cartoonist-keith-knights-14-tips-for-a-more-successful-funding-campaign/2012/04/13/gIQAF8LJFT_blog.html?wprss=rss_comic-riffs</t>
   </si>
   <si>
@@ -1021,9 +985,6 @@
     <t>Spencer Tomaya</t>
   </si>
   <si>
-    <t>Reddit AMA's</t>
-  </si>
-  <si>
     <t>Brian K. Vaughan</t>
   </si>
   <si>
@@ -1199,9 +1160,6 @@
   </si>
   <si>
     <t>http://www.reddit.com/r/comicbooks/comments/18sq5a/i_am_matt_kindt_writerartist_of_mind_mgmt_3_story/</t>
-  </si>
-  <si>
-    <t>Miscellany</t>
   </si>
   <si>
     <t xml:space="preserve">Comic Book Grammar </t>
@@ -1713,483 +1671,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="71.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="F15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="F16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="F17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="F19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E22" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="F22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
         <v>65</v>
       </c>
-      <c r="F23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>67</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
         <v>69</v>
       </c>
-      <c r="F25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>70</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D27" t="s">
         <v>71</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>74</v>
       </c>
-      <c r="F27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="E28" t="s">
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
         <v>76</v>
       </c>
-      <c r="F28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
         <v>82</v>
       </c>
-      <c r="E29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>83</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D31" t="s">
         <v>84</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E31" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>86</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D32" t="s">
         <v>87</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" xr:uid="{6A5E45B9-704B-4449-BCFB-1FF990D1B175}"/>
-    <hyperlink ref="E18" r:id="rId2" xr:uid="{B5E0E75D-E450-4927-8968-041EB63569F9}"/>
-    <hyperlink ref="E19" r:id="rId3" xr:uid="{A4B5E6A0-7EF4-4C74-94AB-1EEA4B181E61}"/>
+    <hyperlink ref="D17" r:id="rId1" xr:uid="{6A5E45B9-704B-4449-BCFB-1FF990D1B175}"/>
+    <hyperlink ref="D18" r:id="rId2" xr:uid="{B5E0E75D-E450-4927-8968-041EB63569F9}"/>
+    <hyperlink ref="D19" r:id="rId3" xr:uid="{A4B5E6A0-7EF4-4C74-94AB-1EEA4B181E61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -2198,95 +2059,79 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A74E5F-C958-4AB5-A038-585BD7C2E0E8}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" t="s">
         <v>291</v>
-      </c>
-      <c r="E2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2296,181 +2141,97 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE4AF4-5306-42B8-96D5-9ACAA534E9C9}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" t="s">
         <v>302</v>
       </c>
-      <c r="C2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D7" t="s">
         <v>304</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>305</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D8" t="s">
         <v>306</v>
-      </c>
-      <c r="E4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E6" t="s">
-        <v>312</v>
-      </c>
-      <c r="F6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2480,80 +2241,65 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64366E4D-4823-4657-91A5-F27DA20B98A7}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" t="s">
-        <v>318</v>
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3" t="s">
-        <v>322</v>
+        <v>310</v>
+      </c>
+      <c r="D3" t="s">
+        <v>311</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" t="s">
-        <v>324</v>
+        <v>312</v>
+      </c>
+      <c r="D4" t="s">
+        <v>313</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2563,374 +2309,281 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FDDF98-AECD-42E5-8E80-4B4F966D03A4}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="108.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" t="s">
         <v>327</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" t="s">
         <v>328</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
         <v>330</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C4" t="s">
-        <v>332</v>
-      </c>
-      <c r="E4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D13" t="s">
         <v>337</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D14" t="s">
         <v>339</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" t="s">
         <v>345</v>
       </c>
-      <c r="E9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>346</v>
       </c>
-      <c r="E10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D18" t="s">
         <v>347</v>
       </c>
-      <c r="E11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>348</v>
       </c>
-      <c r="E12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>327</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D19" t="s">
         <v>349</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>327</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D20" t="s">
         <v>351</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D21" t="s">
         <v>353</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D22" t="s">
         <v>355</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D23" t="s">
         <v>357</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D24" t="s">
         <v>359</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D25" t="s">
         <v>361</v>
       </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D26" t="s">
         <v>363</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>327</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D27" t="s">
         <v>365</v>
       </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>327</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D28" t="s">
         <v>367</v>
       </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D29" t="s">
         <v>369</v>
       </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>327</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D30" t="s">
         <v>371</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>327</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D31" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="E25" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>327</v>
-      </c>
-      <c r="C26" t="s">
-        <v>375</v>
-      </c>
-      <c r="E26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>327</v>
-      </c>
-      <c r="C27" t="s">
-        <v>377</v>
-      </c>
-      <c r="E27" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>327</v>
-      </c>
-      <c r="C28" t="s">
-        <v>379</v>
-      </c>
-      <c r="E28" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>327</v>
-      </c>
-      <c r="C29" t="s">
-        <v>381</v>
-      </c>
-      <c r="E29" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>327</v>
-      </c>
-      <c r="C30" t="s">
-        <v>383</v>
-      </c>
-      <c r="E30" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>327</v>
-      </c>
-      <c r="C31" t="s">
-        <v>385</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E31" r:id="rId1" xr:uid="{262450C2-6BDE-4D28-9FD7-1E4FC1DB255C}"/>
+    <hyperlink ref="D31" r:id="rId1" xr:uid="{262450C2-6BDE-4D28-9FD7-1E4FC1DB255C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2938,356 +2591,283 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD2076A-99E2-4A6A-BEA0-D7DED30A7E74}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" t="s">
         <v>387</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E7" t="s">
         <v>388</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>389</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D8" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>391</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D9" t="s">
         <v>392</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>393</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D10" t="s">
         <v>394</v>
       </c>
-      <c r="F4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>395</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D11" t="s">
         <v>396</v>
       </c>
-      <c r="F5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>397</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D12" t="s">
         <v>398</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D13" t="s">
         <v>400</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E13" t="s">
         <v>401</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D14" t="s">
         <v>403</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>404</v>
       </c>
-      <c r="F8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D15" t="s">
         <v>405</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D16" t="s">
         <v>407</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>408</v>
       </c>
-      <c r="F10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D17" t="s">
         <v>409</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E17" t="s">
         <v>410</v>
       </c>
-      <c r="F11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>387</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>411</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D18" t="s">
         <v>412</v>
       </c>
-      <c r="F12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>387</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E18" t="s">
         <v>413</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>414</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D19" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E19" t="s">
         <v>416</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>417</v>
       </c>
-      <c r="F14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>387</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D20" t="s">
         <v>418</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>419</v>
       </c>
-      <c r="F15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>387</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D21" t="s">
         <v>420</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>421</v>
       </c>
-      <c r="F16" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>387</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D22" t="s">
         <v>422</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>423</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D23" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>387</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E23" t="s">
         <v>425</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>426</v>
       </c>
-      <c r="F18" t="s">
+      <c r="D24" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>387</v>
-      </c>
-      <c r="C19" t="s">
-        <v>428</v>
-      </c>
-      <c r="E19" t="s">
-        <v>429</v>
-      </c>
-      <c r="F19" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>387</v>
-      </c>
-      <c r="C20" t="s">
-        <v>431</v>
-      </c>
-      <c r="E20" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>387</v>
-      </c>
-      <c r="C21" t="s">
-        <v>433</v>
-      </c>
-      <c r="E21" t="s">
-        <v>434</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>387</v>
-      </c>
-      <c r="C22" t="s">
-        <v>435</v>
-      </c>
-      <c r="E22" t="s">
-        <v>436</v>
-      </c>
-      <c r="F22" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>387</v>
-      </c>
-      <c r="C23" t="s">
-        <v>437</v>
-      </c>
-      <c r="E23" t="s">
-        <v>438</v>
-      </c>
-      <c r="F23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>387</v>
-      </c>
-      <c r="C24" t="s">
-        <v>440</v>
-      </c>
       <c r="E24" t="s">
-        <v>441</v>
-      </c>
-      <c r="F24" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -3297,197 +2877,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AFD21B-DFC3-4FA2-8B3A-4161908F8D73}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
         <v>95</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E5" t="s">
         <v>98</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>99</v>
       </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>100</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E7" t="s">
         <v>103</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>105</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>106</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>108</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
         <v>109</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>111</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>112</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>113</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>115</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>116</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>118</v>
       </c>
-      <c r="E11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
       <c r="E12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A60E2E94-28FC-4C26-929A-75004B147A22}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{A60E2E94-28FC-4C26-929A-75004B147A22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3495,95 +3040,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398E39E5-F2DD-4458-903B-2D62CCCDD754}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
         <v>123</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>124</v>
       </c>
-      <c r="F2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>125</v>
       </c>
-      <c r="C4" t="s">
-        <v>129</v>
+      <c r="D4" t="s">
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3593,66 +3123,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA68B861-AA04-43B5-84B0-9E878AA92D9F}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3662,101 +3180,86 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71DDF9F-A77C-4404-8F6D-E4373490B2CC}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
         <v>137</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>138</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>139</v>
       </c>
-      <c r="F2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
+      <c r="E5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{58F91D54-BF00-4173-9B26-D72E882E0B2D}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{58F91D54-BF00-4173-9B26-D72E882E0B2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3764,203 +3267,164 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4246B6FD-A90E-41FD-8C81-F85E4E7FB9EE}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>148</v>
       </c>
-      <c r="E2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>151</v>
       </c>
-      <c r="E3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>149</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="E8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>160</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D9" t="s">
         <v>161</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D10" t="s">
         <v>163</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>164</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D11" t="s">
         <v>166</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>167</v>
       </c>
-      <c r="F9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>168</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D12" t="s">
         <v>169</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>171</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D13" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{50DC5637-4513-406C-84C2-53291E3097C0}"/>
-    <hyperlink ref="E13" r:id="rId2" xr:uid="{A362F3E5-AFA9-42F9-90C4-0F251403FB90}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{50DC5637-4513-406C-84C2-53291E3097C0}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{A362F3E5-AFA9-42F9-90C4-0F251403FB90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3968,280 +3432,222 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4772D07-1227-42ED-AC13-3A6EE683D154}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>179</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" t="s">
         <v>186</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>187</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>189</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D9" t="s">
         <v>190</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D10" t="s">
         <v>192</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>193</v>
       </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D11" t="s">
         <v>194</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E11" t="s">
         <v>195</v>
       </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>196</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D12" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E12" t="s">
         <v>198</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D13" t="s">
         <v>200</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>201</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D14" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E14" t="s">
         <v>203</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>204</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D15" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E15" t="s">
         <v>206</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>207</v>
       </c>
-      <c r="F13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D16" t="s">
         <v>208</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>209</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D17" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E17" t="s">
         <v>211</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>212</v>
       </c>
-      <c r="F15" t="s">
+      <c r="C18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" t="s">
-        <v>214</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>215</v>
       </c>
-      <c r="F16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D19" t="s">
         <v>216</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>217</v>
-      </c>
-      <c r="F17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" t="s">
-        <v>220</v>
-      </c>
-      <c r="F18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" t="s">
-        <v>223</v>
-      </c>
-      <c r="F19" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4251,369 +3657,291 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919182F1-3829-492B-9B98-65383D2604FF}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" t="s">
         <v>225</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E4" t="s">
         <v>226</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
         <v>228</v>
       </c>
-      <c r="F2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E5" t="s">
         <v>229</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>230</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>233</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D7" t="s">
         <v>235</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>236</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D8" t="s">
         <v>238</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>240</v>
       </c>
-      <c r="E6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D9" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>242</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D10" t="s">
         <v>243</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D11" t="s">
         <v>245</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>246</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D12" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>248</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D13" t="s">
         <v>249</v>
       </c>
-      <c r="F9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E13" t="s">
         <v>250</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>251</v>
       </c>
-      <c r="F10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D14" t="s">
         <v>252</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>253</v>
       </c>
-      <c r="F11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D15" t="s">
         <v>254</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>255</v>
       </c>
-      <c r="F12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D16" t="s">
         <v>256</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
         <v>257</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D17" t="s">
         <v>259</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" t="s">
         <v>260</v>
       </c>
-      <c r="F14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>261</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D18" t="s">
         <v>262</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" t="s">
-        <v>263</v>
-      </c>
-      <c r="E16" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E19" t="s">
         <v>266</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>267</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D20" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" t="s">
         <v>269</v>
       </c>
-      <c r="E18" t="s">
-        <v>270</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>272</v>
       </c>
-      <c r="E19" t="s">
-        <v>273</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D23" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>275</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D24" t="s">
         <v>276</v>
       </c>
-      <c r="F20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" t="s">
-        <v>278</v>
-      </c>
-      <c r="E21" t="s">
-        <v>277</v>
-      </c>
-      <c r="F21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" t="s">
-        <v>279</v>
-      </c>
-      <c r="E22" t="s">
-        <v>281</v>
-      </c>
-      <c r="F22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" t="s">
-        <v>280</v>
-      </c>
-      <c r="E23" t="s">
-        <v>282</v>
-      </c>
-      <c r="F23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" t="s">
-        <v>283</v>
-      </c>
       <c r="E24" t="s">
-        <v>284</v>
-      </c>
-      <c r="F24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4623,63 +3951,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648FF5B1-183C-4A41-B453-3C7F5332FDB3}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" t="s">
-        <v>286</v>
+        <v>277</v>
+      </c>
+      <c r="D2" t="s">
+        <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" t="s">
-        <v>288</v>
+        <v>279</v>
+      </c>
+      <c r="D3" t="s">
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F3" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
